--- a/BarcodeDataAndSuppFig5-6-7/run38_CountTable.xlsx
+++ b/BarcodeDataAndSuppFig5-6-7/run38_CountTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/PAPERAUG2021/Quasispecies/wtandalphadata/run38/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/PromisePegasus/SPAR_SEQ/revisions_Sep2024/bc_processing_and_supfig567/bc1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4701C4F9-B653-C842-9E61-F688CEEC6B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADFF4A6-415C-1149-A128-7F324DE858D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21540" yWindow="8040" windowWidth="51200" windowHeight="27040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bowtie_count_table_V5.1" sheetId="1" r:id="rId1"/>
@@ -37,12 +37,6 @@
     <t>Spoly</t>
   </si>
   <si>
-    <t>Swf_26</t>
-  </si>
-  <si>
-    <t>Swf_26_Omicron</t>
-  </si>
-  <si>
     <t>gACTB</t>
   </si>
   <si>
@@ -3320,6 +3314,12 @@
   </si>
   <si>
     <t>well</t>
+  </si>
+  <si>
+    <t>Srbd_v2</t>
+  </si>
+  <si>
+    <t>Srbd_v2_Omicron</t>
   </si>
 </sst>
 </file>
@@ -3662,7 +3662,7 @@
   <dimension ref="A1:N364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3690,36 +3690,36 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C2">
         <v>84</v>
@@ -3755,15 +3755,15 @@
         <v>3527</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C3">
         <v>55</v>
@@ -3799,15 +3799,15 @@
         <v>71805</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C4">
         <v>19427</v>
@@ -3843,15 +3843,15 @@
         <v>43900</v>
       </c>
       <c r="N4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C5">
         <v>24539</v>
@@ -3887,15 +3887,15 @@
         <v>56206</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C6">
         <v>15468</v>
@@ -3931,15 +3931,15 @@
         <v>30305</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C7">
         <v>24062</v>
@@ -3975,15 +3975,15 @@
         <v>53209</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C8">
         <v>89</v>
@@ -4019,15 +4019,15 @@
         <v>3103</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C9">
         <v>8438</v>
@@ -4063,15 +4063,15 @@
         <v>165077</v>
       </c>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C10">
         <v>111863</v>
@@ -4107,15 +4107,15 @@
         <v>255389</v>
       </c>
       <c r="N10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C11">
         <v>4525</v>
@@ -4151,15 +4151,15 @@
         <v>210686</v>
       </c>
       <c r="N11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C12">
         <v>27077</v>
@@ -4195,15 +4195,15 @@
         <v>237053</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C13">
         <v>48900</v>
@@ -4239,15 +4239,15 @@
         <v>115310</v>
       </c>
       <c r="N13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C14">
         <v>4518</v>
@@ -4283,15 +4283,15 @@
         <v>211273</v>
       </c>
       <c r="N14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C15">
         <v>12389</v>
@@ -4327,15 +4327,15 @@
         <v>166425</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C16">
         <v>4473</v>
@@ -4371,15 +4371,15 @@
         <v>225756</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C17">
         <v>10835</v>
@@ -4415,15 +4415,15 @@
         <v>249219</v>
       </c>
       <c r="N17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C18">
         <v>8528</v>
@@ -4459,15 +4459,15 @@
         <v>265302</v>
       </c>
       <c r="N18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C19">
         <v>85377</v>
@@ -4503,15 +4503,15 @@
         <v>213095</v>
       </c>
       <c r="N19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C20">
         <v>26079</v>
@@ -4547,15 +4547,15 @@
         <v>53286</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C21">
         <v>21440</v>
@@ -4591,15 +4591,15 @@
         <v>237070</v>
       </c>
       <c r="N21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C22">
         <v>5156</v>
@@ -4635,15 +4635,15 @@
         <v>270299</v>
       </c>
       <c r="N22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C23">
         <v>15133</v>
@@ -4679,15 +4679,15 @@
         <v>115935</v>
       </c>
       <c r="N23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C24">
         <v>24686</v>
@@ -4723,15 +4723,15 @@
         <v>243163</v>
       </c>
       <c r="N24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C25">
         <v>14380</v>
@@ -4767,15 +4767,15 @@
         <v>147812</v>
       </c>
       <c r="N25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C26">
         <v>6159</v>
@@ -4811,15 +4811,15 @@
         <v>223698</v>
       </c>
       <c r="N26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C27">
         <v>10216</v>
@@ -4855,15 +4855,15 @@
         <v>134976</v>
       </c>
       <c r="N27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C28">
         <v>12663</v>
@@ -4899,15 +4899,15 @@
         <v>286293</v>
       </c>
       <c r="N28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C29">
         <v>27353</v>
@@ -4943,15 +4943,15 @@
         <v>150010</v>
       </c>
       <c r="N29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C30">
         <v>37495</v>
@@ -4987,15 +4987,15 @@
         <v>114636</v>
       </c>
       <c r="N30" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C31">
         <v>58469</v>
@@ -5031,15 +5031,15 @@
         <v>140502</v>
       </c>
       <c r="N31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C32">
         <v>50988</v>
@@ -5075,15 +5075,15 @@
         <v>136502</v>
       </c>
       <c r="N32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C33">
         <v>19951</v>
@@ -5119,15 +5119,15 @@
         <v>180965</v>
       </c>
       <c r="N33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C34">
         <v>6595</v>
@@ -5163,15 +5163,15 @@
         <v>192881</v>
       </c>
       <c r="N34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C35">
         <v>21382</v>
@@ -5207,15 +5207,15 @@
         <v>125311</v>
       </c>
       <c r="N35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C36">
         <v>28227</v>
@@ -5251,15 +5251,15 @@
         <v>88591</v>
       </c>
       <c r="N36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C37">
         <v>58374</v>
@@ -5295,15 +5295,15 @@
         <v>137754</v>
       </c>
       <c r="N37" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C38">
         <v>3519</v>
@@ -5339,15 +5339,15 @@
         <v>208518</v>
       </c>
       <c r="N38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C39">
         <v>43310</v>
@@ -5383,15 +5383,15 @@
         <v>115188</v>
       </c>
       <c r="N39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C40">
         <v>17878</v>
@@ -5427,15 +5427,15 @@
         <v>81682</v>
       </c>
       <c r="N40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C41">
         <v>47606</v>
@@ -5471,15 +5471,15 @@
         <v>121841</v>
       </c>
       <c r="N41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C42">
         <v>31987</v>
@@ -5515,15 +5515,15 @@
         <v>81948</v>
       </c>
       <c r="N42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C43">
         <v>28238</v>
@@ -5559,15 +5559,15 @@
         <v>162875</v>
       </c>
       <c r="N43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C44">
         <v>21825</v>
@@ -5603,15 +5603,15 @@
         <v>195680</v>
       </c>
       <c r="N44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C45">
         <v>149</v>
@@ -5647,15 +5647,15 @@
         <v>87258</v>
       </c>
       <c r="N45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C46">
         <v>8578</v>
@@ -5691,15 +5691,15 @@
         <v>92669</v>
       </c>
       <c r="N46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C47">
         <v>19234</v>
@@ -5735,15 +5735,15 @@
         <v>59661</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C48">
         <v>11852</v>
@@ -5779,15 +5779,15 @@
         <v>274547</v>
       </c>
       <c r="N48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C49">
         <v>14341</v>
@@ -5823,15 +5823,15 @@
         <v>366985</v>
       </c>
       <c r="N49" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C50">
         <v>14525</v>
@@ -5867,15 +5867,15 @@
         <v>38276</v>
       </c>
       <c r="N50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C51">
         <v>2582</v>
@@ -5911,15 +5911,15 @@
         <v>66317</v>
       </c>
       <c r="N51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C52">
         <v>43774</v>
@@ -5955,15 +5955,15 @@
         <v>125351</v>
       </c>
       <c r="N52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C53">
         <v>8170</v>
@@ -5999,15 +5999,15 @@
         <v>231908</v>
       </c>
       <c r="N53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C54">
         <v>61793</v>
@@ -6043,15 +6043,15 @@
         <v>133192</v>
       </c>
       <c r="N54" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C55">
         <v>2026</v>
@@ -6087,15 +6087,15 @@
         <v>93912</v>
       </c>
       <c r="N55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C56">
         <v>29097</v>
@@ -6131,15 +6131,15 @@
         <v>115221</v>
       </c>
       <c r="N56" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C57">
         <v>3939</v>
@@ -6175,15 +6175,15 @@
         <v>288280</v>
       </c>
       <c r="N57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C58">
         <v>2724</v>
@@ -6219,15 +6219,15 @@
         <v>161844</v>
       </c>
       <c r="N58" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C59">
         <v>61167</v>
@@ -6263,15 +6263,15 @@
         <v>144060</v>
       </c>
       <c r="N59" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C60">
         <v>25904</v>
@@ -6307,15 +6307,15 @@
         <v>74338</v>
       </c>
       <c r="N60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C61">
         <v>3778</v>
@@ -6351,15 +6351,15 @@
         <v>254916</v>
       </c>
       <c r="N61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C62">
         <v>3698</v>
@@ -6395,15 +6395,15 @@
         <v>214289</v>
       </c>
       <c r="N62" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C63">
         <v>52428</v>
@@ -6439,15 +6439,15 @@
         <v>145707</v>
       </c>
       <c r="N63" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C64">
         <v>77872</v>
@@ -6483,15 +6483,15 @@
         <v>191137</v>
       </c>
       <c r="N64" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C65">
         <v>3952</v>
@@ -6527,15 +6527,15 @@
         <v>88453</v>
       </c>
       <c r="N65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C66">
         <v>869</v>
@@ -6571,15 +6571,15 @@
         <v>196141</v>
       </c>
       <c r="N66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C67">
         <v>5775</v>
@@ -6615,15 +6615,15 @@
         <v>23563</v>
       </c>
       <c r="N67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C68">
         <v>25206</v>
@@ -6659,15 +6659,15 @@
         <v>78547</v>
       </c>
       <c r="N68" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C69">
         <v>14303</v>
@@ -6703,15 +6703,15 @@
         <v>226477</v>
       </c>
       <c r="N69" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C70">
         <v>28393</v>
@@ -6747,15 +6747,15 @@
         <v>141012</v>
       </c>
       <c r="N70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C71">
         <v>21289</v>
@@ -6791,15 +6791,15 @@
         <v>101288</v>
       </c>
       <c r="N71" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C72">
         <v>14816</v>
@@ -6835,15 +6835,15 @@
         <v>105593</v>
       </c>
       <c r="N72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C73">
         <v>5690</v>
@@ -6879,15 +6879,15 @@
         <v>195631</v>
       </c>
       <c r="N73" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C74">
         <v>3102</v>
@@ -6923,15 +6923,15 @@
         <v>316563</v>
       </c>
       <c r="N74" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B75" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C75">
         <v>13798</v>
@@ -6967,15 +6967,15 @@
         <v>145392</v>
       </c>
       <c r="N75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C76">
         <v>11036</v>
@@ -7011,15 +7011,15 @@
         <v>259937</v>
       </c>
       <c r="N76" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C77">
         <v>55473</v>
@@ -7055,15 +7055,15 @@
         <v>173266</v>
       </c>
       <c r="N77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C78">
         <v>36035</v>
@@ -7099,15 +7099,15 @@
         <v>213373</v>
       </c>
       <c r="N78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C79">
         <v>37985</v>
@@ -7143,15 +7143,15 @@
         <v>96745</v>
       </c>
       <c r="N79" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C80">
         <v>48368</v>
@@ -7187,15 +7187,15 @@
         <v>122487</v>
       </c>
       <c r="N80" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C81">
         <v>31497</v>
@@ -7231,15 +7231,15 @@
         <v>141304</v>
       </c>
       <c r="N81" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C82">
         <v>235</v>
@@ -7275,15 +7275,15 @@
         <v>2600</v>
       </c>
       <c r="N82" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C83">
         <v>2489</v>
@@ -7319,15 +7319,15 @@
         <v>210681</v>
       </c>
       <c r="N83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C84">
         <v>328</v>
@@ -7363,15 +7363,15 @@
         <v>2349</v>
       </c>
       <c r="N84" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C85">
         <v>12632</v>
@@ -7407,15 +7407,15 @@
         <v>198995</v>
       </c>
       <c r="N85" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C86">
         <v>6434</v>
@@ -7451,15 +7451,15 @@
         <v>16436</v>
       </c>
       <c r="N86" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C87">
         <v>20080</v>
@@ -7495,15 +7495,15 @@
         <v>150769</v>
       </c>
       <c r="N87" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C88">
         <v>13788</v>
@@ -7539,15 +7539,15 @@
         <v>142038</v>
       </c>
       <c r="N88" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C89">
         <v>296</v>
@@ -7583,15 +7583,15 @@
         <v>3484</v>
       </c>
       <c r="N89" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C90">
         <v>5421</v>
@@ -7627,15 +7627,15 @@
         <v>248573</v>
       </c>
       <c r="N90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C91">
         <v>18258</v>
@@ -7671,15 +7671,15 @@
         <v>179813</v>
       </c>
       <c r="N91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C92">
         <v>8265</v>
@@ -7715,15 +7715,15 @@
         <v>54182</v>
       </c>
       <c r="N92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C93">
         <v>21236</v>
@@ -7759,15 +7759,15 @@
         <v>141351</v>
       </c>
       <c r="N93" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C94">
         <v>2163</v>
@@ -7803,15 +7803,15 @@
         <v>84622</v>
       </c>
       <c r="N94" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C95">
         <v>7065</v>
@@ -7847,15 +7847,15 @@
         <v>119636</v>
       </c>
       <c r="N95" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C96">
         <v>26597</v>
@@ -7891,15 +7891,15 @@
         <v>108978</v>
       </c>
       <c r="N96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="C97">
         <v>288</v>
@@ -7935,15 +7935,15 @@
         <v>16132</v>
       </c>
       <c r="N97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C98">
         <v>30962</v>
@@ -7979,15 +7979,15 @@
         <v>406751</v>
       </c>
       <c r="N98" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C99">
         <v>114</v>
@@ -8023,15 +8023,15 @@
         <v>1500</v>
       </c>
       <c r="N99" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C100">
         <v>25675</v>
@@ -8067,15 +8067,15 @@
         <v>189777</v>
       </c>
       <c r="N100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C101">
         <v>30737</v>
@@ -8111,15 +8111,15 @@
         <v>188508</v>
       </c>
       <c r="N101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B102" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C102">
         <v>661</v>
@@ -8155,15 +8155,15 @@
         <v>106516</v>
       </c>
       <c r="N102" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C103">
         <v>59228</v>
@@ -8199,15 +8199,15 @@
         <v>256658</v>
       </c>
       <c r="N103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B104" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C104">
         <v>16091</v>
@@ -8243,15 +8243,15 @@
         <v>369256</v>
       </c>
       <c r="N104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B105" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="C105">
         <v>94235</v>
@@ -8287,15 +8287,15 @@
         <v>285559</v>
       </c>
       <c r="N105" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B106" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C106">
         <v>7670</v>
@@ -8331,15 +8331,15 @@
         <v>150589</v>
       </c>
       <c r="N106" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C107">
         <v>33247</v>
@@ -8375,15 +8375,15 @@
         <v>97241</v>
       </c>
       <c r="N107" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B108" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C108">
         <v>12589</v>
@@ -8419,15 +8419,15 @@
         <v>355760</v>
       </c>
       <c r="N108" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C109">
         <v>2040</v>
@@ -8463,15 +8463,15 @@
         <v>462371</v>
       </c>
       <c r="N109" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B110" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C110">
         <v>82</v>
@@ -8507,15 +8507,15 @@
         <v>2683</v>
       </c>
       <c r="N110" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B111" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C111">
         <v>1189</v>
@@ -8551,15 +8551,15 @@
         <v>367450</v>
       </c>
       <c r="N111" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B112" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C112">
         <v>39792</v>
@@ -8595,15 +8595,15 @@
         <v>280619</v>
       </c>
       <c r="N112" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="C113">
         <v>96051</v>
@@ -8639,15 +8639,15 @@
         <v>267100</v>
       </c>
       <c r="N113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B114" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C114">
         <v>2071</v>
@@ -8683,15 +8683,15 @@
         <v>331901</v>
       </c>
       <c r="N114" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B115" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="C115">
         <v>105</v>
@@ -8727,15 +8727,15 @@
         <v>55110</v>
       </c>
       <c r="N115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C116">
         <v>63321</v>
@@ -8771,15 +8771,15 @@
         <v>174637</v>
       </c>
       <c r="N116" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B117" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C117">
         <v>87</v>
@@ -8815,15 +8815,15 @@
         <v>6316</v>
       </c>
       <c r="N117" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C118">
         <v>73264</v>
@@ -8859,15 +8859,15 @@
         <v>201231</v>
       </c>
       <c r="N118" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C119">
         <v>332</v>
@@ -8903,15 +8903,15 @@
         <v>8932</v>
       </c>
       <c r="N119" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C120">
         <v>67</v>
@@ -8947,15 +8947,15 @@
         <v>81714</v>
       </c>
       <c r="N120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B121" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C121">
         <v>23140</v>
@@ -8991,15 +8991,15 @@
         <v>120444</v>
       </c>
       <c r="N121" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B122" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C122">
         <v>22670</v>
@@ -9035,15 +9035,15 @@
         <v>267012</v>
       </c>
       <c r="N122" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B123" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C123">
         <v>2717</v>
@@ -9079,15 +9079,15 @@
         <v>346772</v>
       </c>
       <c r="N123" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B124" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C124">
         <v>9498</v>
@@ -9123,15 +9123,15 @@
         <v>280434</v>
       </c>
       <c r="N124" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B125" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C125">
         <v>18144</v>
@@ -9167,15 +9167,15 @@
         <v>114467</v>
       </c>
       <c r="N125" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B126" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C126">
         <v>11397</v>
@@ -9211,15 +9211,15 @@
         <v>214220</v>
       </c>
       <c r="N126" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B127" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C127">
         <v>2788</v>
@@ -9255,15 +9255,15 @@
         <v>195432</v>
       </c>
       <c r="N127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C128">
         <v>16900</v>
@@ -9299,15 +9299,15 @@
         <v>111443</v>
       </c>
       <c r="N128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B129" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C129">
         <v>11579</v>
@@ -9343,15 +9343,15 @@
         <v>208950</v>
       </c>
       <c r="N129" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C130">
         <v>5270</v>
@@ -9387,15 +9387,15 @@
         <v>251537</v>
       </c>
       <c r="N130" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B131" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C131">
         <v>23297</v>
@@ -9431,15 +9431,15 @@
         <v>153755</v>
       </c>
       <c r="N131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B132" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C132">
         <v>3472</v>
@@ -9475,15 +9475,15 @@
         <v>340629</v>
       </c>
       <c r="N132" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B133" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="C133">
         <v>102</v>
@@ -9519,15 +9519,15 @@
         <v>115037</v>
       </c>
       <c r="N133" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B134" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C134">
         <v>7320</v>
@@ -9563,15 +9563,15 @@
         <v>421753</v>
       </c>
       <c r="N134" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B135" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="C135">
         <v>5909</v>
@@ -9607,15 +9607,15 @@
         <v>456928</v>
       </c>
       <c r="N135" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B136" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C136">
         <v>34408</v>
@@ -9651,15 +9651,15 @@
         <v>187950</v>
       </c>
       <c r="N136" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B137" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="C137">
         <v>1294</v>
@@ -9695,15 +9695,15 @@
         <v>31749</v>
       </c>
       <c r="N137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B138" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C138">
         <v>43189</v>
@@ -9739,15 +9739,15 @@
         <v>178037</v>
       </c>
       <c r="N138" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B139" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="C139">
         <v>7861</v>
@@ -9783,15 +9783,15 @@
         <v>230890</v>
       </c>
       <c r="N139" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B140" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C140">
         <v>5803</v>
@@ -9827,15 +9827,15 @@
         <v>105193</v>
       </c>
       <c r="N140" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B141" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="C141">
         <v>6086</v>
@@ -9871,15 +9871,15 @@
         <v>324109</v>
       </c>
       <c r="N141" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B142" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C142">
         <v>2838</v>
@@ -9915,15 +9915,15 @@
         <v>412713</v>
       </c>
       <c r="N142" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B143" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C143">
         <v>16133</v>
@@ -9959,15 +9959,15 @@
         <v>469270</v>
       </c>
       <c r="N143" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B144" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C144">
         <v>10130</v>
@@ -10003,15 +10003,15 @@
         <v>133403</v>
       </c>
       <c r="N144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="C145">
         <v>50813</v>
@@ -10047,15 +10047,15 @@
         <v>287505</v>
       </c>
       <c r="N145" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B146" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C146">
         <v>13973</v>
@@ -10091,15 +10091,15 @@
         <v>226942</v>
       </c>
       <c r="N146" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C147">
         <v>4871</v>
@@ -10135,15 +10135,15 @@
         <v>372263</v>
       </c>
       <c r="N147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B148" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C148">
         <v>40222</v>
@@ -10179,15 +10179,15 @@
         <v>104895</v>
       </c>
       <c r="N148" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B149" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C149">
         <v>46749</v>
@@ -10223,15 +10223,15 @@
         <v>145789</v>
       </c>
       <c r="N149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B150" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C150">
         <v>3706</v>
@@ -10267,15 +10267,15 @@
         <v>112758</v>
       </c>
       <c r="N150" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B151" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="C151">
         <v>24269</v>
@@ -10311,15 +10311,15 @@
         <v>244313</v>
       </c>
       <c r="N151" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B152" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C152">
         <v>41269</v>
@@ -10355,15 +10355,15 @@
         <v>211778</v>
       </c>
       <c r="N152" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B153" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C153">
         <v>51816</v>
@@ -10399,15 +10399,15 @@
         <v>125795</v>
       </c>
       <c r="N153" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B154" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C154">
         <v>5729</v>
@@ -10443,15 +10443,15 @@
         <v>380535</v>
       </c>
       <c r="N154" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B155" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C155">
         <v>1942</v>
@@ -10487,15 +10487,15 @@
         <v>93329</v>
       </c>
       <c r="N155" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B156" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C156">
         <v>81385</v>
@@ -10531,15 +10531,15 @@
         <v>277486</v>
       </c>
       <c r="N156" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B157" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C157">
         <v>337</v>
@@ -10575,15 +10575,15 @@
         <v>5514</v>
       </c>
       <c r="N157" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B158" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C158">
         <v>248</v>
@@ -10619,15 +10619,15 @@
         <v>177982</v>
       </c>
       <c r="N158" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B159" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C159">
         <v>24891</v>
@@ -10663,15 +10663,15 @@
         <v>334680</v>
       </c>
       <c r="N159" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B160" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C160">
         <v>11588</v>
@@ -10707,15 +10707,15 @@
         <v>432911</v>
       </c>
       <c r="N160" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B161" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="C161">
         <v>18155</v>
@@ -10751,15 +10751,15 @@
         <v>223906</v>
       </c>
       <c r="N161" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B162" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C162">
         <v>36487</v>
@@ -10795,15 +10795,15 @@
         <v>313288</v>
       </c>
       <c r="N162" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B163" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C163">
         <v>2190</v>
@@ -10839,15 +10839,15 @@
         <v>471632</v>
       </c>
       <c r="N163" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B164" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C164">
         <v>87</v>
@@ -10883,15 +10883,15 @@
         <v>19393</v>
       </c>
       <c r="N164" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B165" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C165">
         <v>1141</v>
@@ -10927,15 +10927,15 @@
         <v>299670</v>
       </c>
       <c r="N165" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B166" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C166">
         <v>110</v>
@@ -10971,15 +10971,15 @@
         <v>19104</v>
       </c>
       <c r="N166" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B167" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C167">
         <v>14910</v>
@@ -11015,15 +11015,15 @@
         <v>241334</v>
       </c>
       <c r="N167" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B168" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C168">
         <v>23760</v>
@@ -11059,15 +11059,15 @@
         <v>275992</v>
       </c>
       <c r="N168" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C169">
         <v>16432</v>
@@ -11103,15 +11103,15 @@
         <v>171204</v>
       </c>
       <c r="N169" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B170" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C170">
         <v>12789</v>
@@ -11147,15 +11147,15 @@
         <v>148161</v>
       </c>
       <c r="N170" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B171" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C171">
         <v>4616</v>
@@ -11191,15 +11191,15 @@
         <v>237599</v>
       </c>
       <c r="N171" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B172" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C172">
         <v>36111</v>
@@ -11235,15 +11235,15 @@
         <v>288293</v>
       </c>
       <c r="N172" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B173" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C173">
         <v>23490</v>
@@ -11279,15 +11279,15 @@
         <v>201575</v>
       </c>
       <c r="N173" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B174" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C174">
         <v>2167</v>
@@ -11323,15 +11323,15 @@
         <v>466531</v>
       </c>
       <c r="N174" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B175" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C175">
         <v>23238</v>
@@ -11367,15 +11367,15 @@
         <v>87628</v>
       </c>
       <c r="N175" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B176" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C176">
         <v>13745</v>
@@ -11411,15 +11411,15 @@
         <v>423831</v>
       </c>
       <c r="N176" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B177" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C177">
         <v>12956</v>
@@ -11455,15 +11455,15 @@
         <v>382129</v>
       </c>
       <c r="N177" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B178" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C178">
         <v>7765</v>
@@ -11499,15 +11499,15 @@
         <v>126748</v>
       </c>
       <c r="N178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B179" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C179">
         <v>50356</v>
@@ -11543,15 +11543,15 @@
         <v>202962</v>
       </c>
       <c r="N179" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B180" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C180">
         <v>5539</v>
@@ -11587,15 +11587,15 @@
         <v>274537</v>
       </c>
       <c r="N180" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B181" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="C181">
         <v>32521</v>
@@ -11631,15 +11631,15 @@
         <v>323609</v>
       </c>
       <c r="N181" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B182" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C182">
         <v>85</v>
@@ -11675,15 +11675,15 @@
         <v>66996</v>
       </c>
       <c r="N182" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B183" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C183">
         <v>17483</v>
@@ -11719,15 +11719,15 @@
         <v>359286</v>
       </c>
       <c r="N183" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B184" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C184">
         <v>190</v>
@@ -11763,15 +11763,15 @@
         <v>17399</v>
       </c>
       <c r="N184" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B185" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C185">
         <v>68763</v>
@@ -11807,15 +11807,15 @@
         <v>188344</v>
       </c>
       <c r="N185" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B186" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C186">
         <v>97</v>
@@ -11851,15 +11851,15 @@
         <v>97039</v>
       </c>
       <c r="N186" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B187" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="C187">
         <v>11140</v>
@@ -11895,15 +11895,15 @@
         <v>278161</v>
       </c>
       <c r="N187" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B188" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C188">
         <v>158</v>
@@ -11939,15 +11939,15 @@
         <v>1333</v>
       </c>
       <c r="N188" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B189" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C189">
         <v>536</v>
@@ -11983,15 +11983,15 @@
         <v>347084</v>
       </c>
       <c r="N189" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B190" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C190">
         <v>4074</v>
@@ -12027,15 +12027,15 @@
         <v>34547</v>
       </c>
       <c r="N190" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B191" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="C191">
         <v>93</v>
@@ -12071,15 +12071,15 @@
         <v>5260</v>
       </c>
       <c r="N191" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B192" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="C192">
         <v>830</v>
@@ -12115,15 +12115,15 @@
         <v>170898</v>
       </c>
       <c r="N192" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B193" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="C193">
         <v>15640</v>
@@ -12159,15 +12159,15 @@
         <v>139655</v>
       </c>
       <c r="N193" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B194" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C194">
         <v>21026</v>
@@ -12203,15 +12203,15 @@
         <v>261195</v>
       </c>
       <c r="N194" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B195" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="C195">
         <v>2328</v>
@@ -12247,15 +12247,15 @@
         <v>367380</v>
       </c>
       <c r="N195" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B196" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C196">
         <v>33265</v>
@@ -12291,15 +12291,15 @@
         <v>139824</v>
       </c>
       <c r="N196" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B197" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="C197">
         <v>1977</v>
@@ -12335,15 +12335,15 @@
         <v>7733</v>
       </c>
       <c r="N197" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B198" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="C198">
         <v>141</v>
@@ -12379,15 +12379,15 @@
         <v>2490</v>
       </c>
       <c r="N198" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B199" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C199">
         <v>11989</v>
@@ -12423,15 +12423,15 @@
         <v>160297</v>
       </c>
       <c r="N199" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B200" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C200">
         <v>24604</v>
@@ -12467,15 +12467,15 @@
         <v>239800</v>
       </c>
       <c r="N200" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B201" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="C201">
         <v>296</v>
@@ -12511,15 +12511,15 @@
         <v>295089</v>
       </c>
       <c r="N201" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B202" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C202">
         <v>40124</v>
@@ -12555,15 +12555,15 @@
         <v>199250</v>
       </c>
       <c r="N202" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B203" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C203">
         <v>48047</v>
@@ -12599,15 +12599,15 @@
         <v>176033</v>
       </c>
       <c r="N203" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B204" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C204">
         <v>909</v>
@@ -12643,15 +12643,15 @@
         <v>316946</v>
       </c>
       <c r="N204" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B205" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C205">
         <v>128</v>
@@ -12687,15 +12687,15 @@
         <v>328679</v>
       </c>
       <c r="N205" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B206" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C206">
         <v>10892</v>
@@ -12731,15 +12731,15 @@
         <v>434862</v>
       </c>
       <c r="N206" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B207" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C207">
         <v>33990</v>
@@ -12775,15 +12775,15 @@
         <v>434141</v>
       </c>
       <c r="N207" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B208" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C208">
         <v>3572</v>
@@ -12819,15 +12819,15 @@
         <v>326333</v>
       </c>
       <c r="N208" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B209" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C209">
         <v>1304</v>
@@ -12863,15 +12863,15 @@
         <v>98368</v>
       </c>
       <c r="N209" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B210" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C210">
         <v>69437</v>
@@ -12907,15 +12907,15 @@
         <v>156688</v>
       </c>
       <c r="N210" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B211" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C211">
         <v>582</v>
@@ -12951,15 +12951,15 @@
         <v>114724</v>
       </c>
       <c r="N211" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B212" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="C212">
         <v>54538</v>
@@ -12995,15 +12995,15 @@
         <v>109215</v>
       </c>
       <c r="N212" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B213" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C213">
         <v>32938</v>
@@ -13039,15 +13039,15 @@
         <v>142219</v>
       </c>
       <c r="N213" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B214" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="C214">
         <v>41709</v>
@@ -13083,15 +13083,15 @@
         <v>104950</v>
       </c>
       <c r="N214" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B215" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C215">
         <v>15866</v>
@@ -13127,15 +13127,15 @@
         <v>300851</v>
       </c>
       <c r="N215" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B216" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C216">
         <v>113483</v>
@@ -13171,15 +13171,15 @@
         <v>260591</v>
       </c>
       <c r="N216" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B217" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C217">
         <v>137</v>
@@ -13215,15 +13215,15 @@
         <v>4235</v>
       </c>
       <c r="N217" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B218" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C218">
         <v>3003</v>
@@ -13259,15 +13259,15 @@
         <v>467359</v>
       </c>
       <c r="N218" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B219" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C219">
         <v>1572</v>
@@ -13303,15 +13303,15 @@
         <v>412705</v>
       </c>
       <c r="N219" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B220" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="C220">
         <v>154</v>
@@ -13347,15 +13347,15 @@
         <v>65184</v>
       </c>
       <c r="N220" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B221" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C221">
         <v>104</v>
@@ -13391,15 +13391,15 @@
         <v>54947</v>
       </c>
       <c r="N221" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B222" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C222">
         <v>2414</v>
@@ -13435,15 +13435,15 @@
         <v>7996</v>
       </c>
       <c r="N222" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B223" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C223">
         <v>137</v>
@@ -13479,15 +13479,15 @@
         <v>32552</v>
       </c>
       <c r="N223" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B224" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C224">
         <v>439</v>
@@ -13523,15 +13523,15 @@
         <v>27470</v>
       </c>
       <c r="N224" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B225" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C225">
         <v>126</v>
@@ -13567,15 +13567,15 @@
         <v>63030</v>
       </c>
       <c r="N225" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B226" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C226">
         <v>129</v>
@@ -13611,15 +13611,15 @@
         <v>36555</v>
       </c>
       <c r="N226" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B227" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C227">
         <v>452</v>
@@ -13655,15 +13655,15 @@
         <v>13466</v>
       </c>
       <c r="N227" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B228" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C228">
         <v>28550</v>
@@ -13699,15 +13699,15 @@
         <v>70968</v>
       </c>
       <c r="N228" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B229" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C229">
         <v>215</v>
@@ -13743,15 +13743,15 @@
         <v>61681</v>
       </c>
       <c r="N229" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B230" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C230">
         <v>313</v>
@@ -13787,15 +13787,15 @@
         <v>26581</v>
       </c>
       <c r="N230" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B231" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C231">
         <v>175</v>
@@ -13831,15 +13831,15 @@
         <v>21609</v>
       </c>
       <c r="N231" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B232" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C232">
         <v>342</v>
@@ -13875,15 +13875,15 @@
         <v>34457</v>
       </c>
       <c r="N232" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B233" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C233">
         <v>13017</v>
@@ -13919,15 +13919,15 @@
         <v>148675</v>
       </c>
       <c r="N233" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B234" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C234">
         <v>187</v>
@@ -13963,15 +13963,15 @@
         <v>62731</v>
       </c>
       <c r="N234" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B235" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C235">
         <v>1760</v>
@@ -14007,15 +14007,15 @@
         <v>64390</v>
       </c>
       <c r="N235" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B236" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C236">
         <v>86827</v>
@@ -14051,15 +14051,15 @@
         <v>274404</v>
       </c>
       <c r="N236" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B237" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C237">
         <v>11507</v>
@@ -14095,15 +14095,15 @@
         <v>195940</v>
       </c>
       <c r="N237" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B238" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C238">
         <v>26184</v>
@@ -14139,15 +14139,15 @@
         <v>104727</v>
       </c>
       <c r="N238" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B239" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C239">
         <v>15038</v>
@@ -14183,15 +14183,15 @@
         <v>357204</v>
       </c>
       <c r="N239" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B240" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C240">
         <v>15338</v>
@@ -14227,15 +14227,15 @@
         <v>218740</v>
       </c>
       <c r="N240" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B241" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C241">
         <v>16669</v>
@@ -14271,15 +14271,15 @@
         <v>228182</v>
       </c>
       <c r="N241" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B242" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C242">
         <v>51018</v>
@@ -14315,15 +14315,15 @@
         <v>170805</v>
       </c>
       <c r="N242" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B243" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C243">
         <v>20662</v>
@@ -14359,15 +14359,15 @@
         <v>330251</v>
       </c>
       <c r="N243" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B244" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="C244">
         <v>2447</v>
@@ -14403,15 +14403,15 @@
         <v>340744</v>
       </c>
       <c r="N244" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B245" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C245">
         <v>45498</v>
@@ -14447,15 +14447,15 @@
         <v>233930</v>
       </c>
       <c r="N245" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B246" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C246">
         <v>30000</v>
@@ -14491,15 +14491,15 @@
         <v>129456</v>
       </c>
       <c r="N246" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B247" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C247">
         <v>7449</v>
@@ -14535,15 +14535,15 @@
         <v>189865</v>
       </c>
       <c r="N247" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B248" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C248">
         <v>2129</v>
@@ -14579,15 +14579,15 @@
         <v>383609</v>
       </c>
       <c r="N248" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B249" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="C249">
         <v>290</v>
@@ -14623,15 +14623,15 @@
         <v>336588</v>
       </c>
       <c r="N249" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B250" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C250">
         <v>652</v>
@@ -14667,15 +14667,15 @@
         <v>3391</v>
       </c>
       <c r="N250" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B251" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C251">
         <v>177</v>
@@ -14711,15 +14711,15 @@
         <v>19959</v>
       </c>
       <c r="N251" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B252" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C252">
         <v>23323</v>
@@ -14755,15 +14755,15 @@
         <v>225403</v>
       </c>
       <c r="N252" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B253" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="C253">
         <v>15256</v>
@@ -14799,15 +14799,15 @@
         <v>92772</v>
       </c>
       <c r="N253" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B254" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C254">
         <v>32351</v>
@@ -14843,15 +14843,15 @@
         <v>195515</v>
       </c>
       <c r="N254" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B255" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C255">
         <v>7560</v>
@@ -14887,15 +14887,15 @@
         <v>285754</v>
       </c>
       <c r="N255" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B256" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C256">
         <v>29109</v>
@@ -14931,15 +14931,15 @@
         <v>138015</v>
       </c>
       <c r="N256" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B257" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="C257">
         <v>8295</v>
@@ -14975,15 +14975,15 @@
         <v>114447</v>
       </c>
       <c r="N257" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B258" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C258">
         <v>102</v>
@@ -15019,15 +15019,15 @@
         <v>15949</v>
       </c>
       <c r="N258" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B259" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="C259">
         <v>6763</v>
@@ -15063,15 +15063,15 @@
         <v>211056</v>
       </c>
       <c r="N259" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B260" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C260">
         <v>629</v>
@@ -15107,15 +15107,15 @@
         <v>94458</v>
       </c>
       <c r="N260" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="261" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B261" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="C261">
         <v>155</v>
@@ -15151,15 +15151,15 @@
         <v>58584</v>
       </c>
       <c r="N261" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="262" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B262" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C262">
         <v>6256</v>
@@ -15195,15 +15195,15 @@
         <v>387361</v>
       </c>
       <c r="N262" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B263" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="C263">
         <v>594</v>
@@ -15239,15 +15239,15 @@
         <v>21514</v>
       </c>
       <c r="N263" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B264" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C264">
         <v>14805</v>
@@ -15283,15 +15283,15 @@
         <v>356800</v>
       </c>
       <c r="N264" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="265" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B265" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="C265">
         <v>170</v>
@@ -15327,15 +15327,15 @@
         <v>35757</v>
       </c>
       <c r="N265" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="266" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B266" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="C266">
         <v>65</v>
@@ -15371,15 +15371,15 @@
         <v>35021</v>
       </c>
       <c r="N266" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B267" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C267">
         <v>46573</v>
@@ -15415,15 +15415,15 @@
         <v>139069</v>
       </c>
       <c r="N267" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B268" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C268">
         <v>4044</v>
@@ -15459,15 +15459,15 @@
         <v>407026</v>
       </c>
       <c r="N268" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="269" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B269" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C269">
         <v>56</v>
@@ -15503,15 +15503,15 @@
         <v>59345</v>
       </c>
       <c r="N269" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B270" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C270">
         <v>25711</v>
@@ -15547,15 +15547,15 @@
         <v>241907</v>
       </c>
       <c r="N270" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B271" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C271">
         <v>21554</v>
@@ -15591,15 +15591,15 @@
         <v>122848</v>
       </c>
       <c r="N271" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B272" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C272">
         <v>14223</v>
@@ -15635,15 +15635,15 @@
         <v>170142</v>
       </c>
       <c r="N272" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B273" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="C273">
         <v>23332</v>
@@ -15679,15 +15679,15 @@
         <v>396261</v>
       </c>
       <c r="N273" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B274" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C274">
         <v>5981</v>
@@ -15723,15 +15723,15 @@
         <v>304296</v>
       </c>
       <c r="N274" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B275" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C275">
         <v>9231</v>
@@ -15767,15 +15767,15 @@
         <v>315587</v>
       </c>
       <c r="N275" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B276" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="C276">
         <v>2899</v>
@@ -15811,15 +15811,15 @@
         <v>295215</v>
       </c>
       <c r="N276" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B277" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C277">
         <v>81849</v>
@@ -15855,15 +15855,15 @@
         <v>353785</v>
       </c>
       <c r="N277" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B278" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="C278">
         <v>32690</v>
@@ -15899,15 +15899,15 @@
         <v>137001</v>
       </c>
       <c r="N278" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B279" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C279">
         <v>3206</v>
@@ -15943,15 +15943,15 @@
         <v>323076</v>
       </c>
       <c r="N279" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B280" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C280">
         <v>3578</v>
@@ -15987,15 +15987,15 @@
         <v>222857</v>
       </c>
       <c r="N280" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B281" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C281">
         <v>9719</v>
@@ -16031,15 +16031,15 @@
         <v>287298</v>
       </c>
       <c r="N281" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B282" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="C282">
         <v>26938</v>
@@ -16075,15 +16075,15 @@
         <v>137431</v>
       </c>
       <c r="N282" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B283" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="C283">
         <v>22724</v>
@@ -16119,15 +16119,15 @@
         <v>140599</v>
       </c>
       <c r="N283" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B284" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="C284">
         <v>55603</v>
@@ -16163,15 +16163,15 @@
         <v>289857</v>
       </c>
       <c r="N284" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B285" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C285">
         <v>153</v>
@@ -16207,15 +16207,15 @@
         <v>106756</v>
       </c>
       <c r="N285" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B286" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="C286">
         <v>1197</v>
@@ -16251,15 +16251,15 @@
         <v>95907</v>
       </c>
       <c r="N286" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B287" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="C287">
         <v>58030</v>
@@ -16295,15 +16295,15 @@
         <v>275549</v>
       </c>
       <c r="N287" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B288" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C288">
         <v>44971</v>
@@ -16339,15 +16339,15 @@
         <v>315737</v>
       </c>
       <c r="N288" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B289" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C289">
         <v>49357</v>
@@ -16383,15 +16383,15 @@
         <v>147229</v>
       </c>
       <c r="N289" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B290" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C290">
         <v>4046</v>
@@ -16427,15 +16427,15 @@
         <v>510091</v>
       </c>
       <c r="N290" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B291" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C291">
         <v>22578</v>
@@ -16471,15 +16471,15 @@
         <v>280404</v>
       </c>
       <c r="N291" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B292" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="C292">
         <v>105</v>
@@ -16515,15 +16515,15 @@
         <v>714</v>
       </c>
       <c r="N292" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B293" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="C293">
         <v>66976</v>
@@ -16559,15 +16559,15 @@
         <v>168855</v>
       </c>
       <c r="N293" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B294" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C294">
         <v>2916</v>
@@ -16603,15 +16603,15 @@
         <v>89219</v>
       </c>
       <c r="N294" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B295" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C295">
         <v>69849</v>
@@ -16647,15 +16647,15 @@
         <v>206504</v>
       </c>
       <c r="N295" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B296" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="C296">
         <v>37215</v>
@@ -16691,15 +16691,15 @@
         <v>66599</v>
       </c>
       <c r="N296" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B297" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="C297">
         <v>8147</v>
@@ -16735,15 +16735,15 @@
         <v>203339</v>
       </c>
       <c r="N297" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B298" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C298">
         <v>4815</v>
@@ -16779,15 +16779,15 @@
         <v>330978</v>
       </c>
       <c r="N298" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B299" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C299">
         <v>1320</v>
@@ -16823,15 +16823,15 @@
         <v>32483</v>
       </c>
       <c r="N299" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B300" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C300">
         <v>12753</v>
@@ -16867,15 +16867,15 @@
         <v>250113</v>
       </c>
       <c r="N300" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B301" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C301">
         <v>981</v>
@@ -16911,15 +16911,15 @@
         <v>418554</v>
       </c>
       <c r="N301" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B302" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="C302">
         <v>25135</v>
@@ -16955,15 +16955,15 @@
         <v>285113</v>
       </c>
       <c r="N302" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="B303" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="C303">
         <v>11752</v>
@@ -16999,15 +16999,15 @@
         <v>165295</v>
       </c>
       <c r="N303" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B304" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="C304">
         <v>10324</v>
@@ -17043,15 +17043,15 @@
         <v>178851</v>
       </c>
       <c r="N304" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B305" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C305">
         <v>12191</v>
@@ -17087,15 +17087,15 @@
         <v>133812</v>
       </c>
       <c r="N305" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B306" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C306">
         <v>13694</v>
@@ -17131,15 +17131,15 @@
         <v>217831</v>
       </c>
       <c r="N306" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B307" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="C307">
         <v>412</v>
@@ -17175,15 +17175,15 @@
         <v>330230</v>
       </c>
       <c r="N307" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B308" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="C308">
         <v>239</v>
@@ -17219,15 +17219,15 @@
         <v>66197</v>
       </c>
       <c r="N308" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B309" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C309">
         <v>26709</v>
@@ -17263,15 +17263,15 @@
         <v>231461</v>
       </c>
       <c r="N309" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B310" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="C310">
         <v>3980</v>
@@ -17307,15 +17307,15 @@
         <v>160729</v>
       </c>
       <c r="N310" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B311" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C311">
         <v>26718</v>
@@ -17351,15 +17351,15 @@
         <v>153836</v>
       </c>
       <c r="N311" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B312" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C312">
         <v>28724</v>
@@ -17395,15 +17395,15 @@
         <v>226587</v>
       </c>
       <c r="N312" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B313" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="C313">
         <v>70165</v>
@@ -17439,15 +17439,15 @@
         <v>158959</v>
       </c>
       <c r="N313" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B314" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="C314">
         <v>11860</v>
@@ -17483,15 +17483,15 @@
         <v>165265</v>
       </c>
       <c r="N314" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B315" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="C315">
         <v>70785</v>
@@ -17527,15 +17527,15 @@
         <v>158111</v>
       </c>
       <c r="N315" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B316" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="C316">
         <v>3882</v>
@@ -17571,15 +17571,15 @@
         <v>306438</v>
       </c>
       <c r="N316" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B317" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C317">
         <v>30095</v>
@@ -17615,15 +17615,15 @@
         <v>141257</v>
       </c>
       <c r="N317" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B318" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="C318">
         <v>61602</v>
@@ -17659,15 +17659,15 @@
         <v>130203</v>
       </c>
       <c r="N318" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B319" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C319">
         <v>73150</v>
@@ -17703,15 +17703,15 @@
         <v>212724</v>
       </c>
       <c r="N319" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B320" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="C320">
         <v>43206</v>
@@ -17747,15 +17747,15 @@
         <v>158242</v>
       </c>
       <c r="N320" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B321" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C321">
         <v>53763</v>
@@ -17791,15 +17791,15 @@
         <v>113809</v>
       </c>
       <c r="N321" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B322" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="C322">
         <v>2838</v>
@@ -17835,15 +17835,15 @@
         <v>26713</v>
       </c>
       <c r="N322" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B323" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C323">
         <v>5391</v>
@@ -17879,15 +17879,15 @@
         <v>181798</v>
       </c>
       <c r="N323" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B324" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C324">
         <v>8419</v>
@@ -17923,15 +17923,15 @@
         <v>327336</v>
       </c>
       <c r="N324" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B325" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="C325">
         <v>763</v>
@@ -17967,15 +17967,15 @@
         <v>432525</v>
       </c>
       <c r="N325" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B326" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="C326">
         <v>34020</v>
@@ -18011,15 +18011,15 @@
         <v>158236</v>
       </c>
       <c r="N326" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B327" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C327">
         <v>24358</v>
@@ -18055,15 +18055,15 @@
         <v>173002</v>
       </c>
       <c r="N327" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B328" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="C328">
         <v>1465</v>
@@ -18099,15 +18099,15 @@
         <v>47343</v>
       </c>
       <c r="N328" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B329" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="C329">
         <v>6683</v>
@@ -18143,15 +18143,15 @@
         <v>254690</v>
       </c>
       <c r="N329" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B330" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="C330">
         <v>5270</v>
@@ -18187,15 +18187,15 @@
         <v>232590</v>
       </c>
       <c r="N330" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B331" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="C331">
         <v>3144</v>
@@ -18231,15 +18231,15 @@
         <v>177582</v>
       </c>
       <c r="N331" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B332" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C332">
         <v>157</v>
@@ -18275,15 +18275,15 @@
         <v>7440</v>
       </c>
       <c r="N332" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B333" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C333">
         <v>8174</v>
@@ -18319,15 +18319,15 @@
         <v>245783</v>
       </c>
       <c r="N333" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B334" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C334">
         <v>16042</v>
@@ -18363,15 +18363,15 @@
         <v>154228</v>
       </c>
       <c r="N334" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B335" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C335">
         <v>27038</v>
@@ -18407,15 +18407,15 @@
         <v>78420</v>
       </c>
       <c r="N335" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B336" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C336">
         <v>20290</v>
@@ -18451,15 +18451,15 @@
         <v>209066</v>
       </c>
       <c r="N336" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B337" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="C337">
         <v>28522</v>
@@ -18495,15 +18495,15 @@
         <v>159985</v>
       </c>
       <c r="N337" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B338" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="C338">
         <v>39355</v>
@@ -18539,15 +18539,15 @@
         <v>83097</v>
       </c>
       <c r="N338" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B339" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="C339">
         <v>72734</v>
@@ -18583,15 +18583,15 @@
         <v>156366</v>
       </c>
       <c r="N339" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B340" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C340">
         <v>11297</v>
@@ -18627,15 +18627,15 @@
         <v>238165</v>
       </c>
       <c r="N340" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B341" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="C341">
         <v>2868</v>
@@ -18671,15 +18671,15 @@
         <v>240778</v>
       </c>
       <c r="N341" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B342" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C342">
         <v>17913</v>
@@ -18715,15 +18715,15 @@
         <v>182836</v>
       </c>
       <c r="N342" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B343" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="C343">
         <v>375</v>
@@ -18759,15 +18759,15 @@
         <v>162746</v>
       </c>
       <c r="N343" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B344" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C344">
         <v>5880</v>
@@ -18803,15 +18803,15 @@
         <v>278229</v>
       </c>
       <c r="N344" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B345" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C345">
         <v>49246</v>
@@ -18847,15 +18847,15 @@
         <v>178978</v>
       </c>
       <c r="N345" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B346" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C346">
         <v>1132</v>
@@ -18891,15 +18891,15 @@
         <v>178237</v>
       </c>
       <c r="N346" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B347" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C347">
         <v>25787</v>
@@ -18935,15 +18935,15 @@
         <v>148960</v>
       </c>
       <c r="N347" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B348" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="C348">
         <v>4637</v>
@@ -18979,15 +18979,15 @@
         <v>250532</v>
       </c>
       <c r="N348" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="B349" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="C349">
         <v>57564</v>
@@ -19023,15 +19023,15 @@
         <v>158199</v>
       </c>
       <c r="N349" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B350" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="C350">
         <v>58</v>
@@ -19067,15 +19067,15 @@
         <v>123669</v>
       </c>
       <c r="N350" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B351" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="C351">
         <v>4828</v>
@@ -19111,15 +19111,15 @@
         <v>284381</v>
       </c>
       <c r="N351" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B352" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="C352">
         <v>1694</v>
@@ -19155,15 +19155,15 @@
         <v>145606</v>
       </c>
       <c r="N352" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B353" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C353">
         <v>87</v>
@@ -19199,15 +19199,15 @@
         <v>277772</v>
       </c>
       <c r="N353" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B354" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="C354">
         <v>25807</v>
@@ -19243,15 +19243,15 @@
         <v>77480</v>
       </c>
       <c r="N354" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B355" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="C355">
         <v>6011</v>
@@ -19287,15 +19287,15 @@
         <v>114244</v>
       </c>
       <c r="N355" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B356" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C356">
         <v>807</v>
@@ -19331,15 +19331,15 @@
         <v>188026</v>
       </c>
       <c r="N356" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B357" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="C357">
         <v>2702</v>
@@ -19375,15 +19375,15 @@
         <v>353784</v>
       </c>
       <c r="N357" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B358" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="C358">
         <v>606</v>
@@ -19419,15 +19419,15 @@
         <v>148539</v>
       </c>
       <c r="N358" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B359" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="C359">
         <v>9062</v>
@@ -19463,15 +19463,15 @@
         <v>241794</v>
       </c>
       <c r="N359" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B360" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="C360">
         <v>35777</v>
@@ -19507,15 +19507,15 @@
         <v>281379</v>
       </c>
       <c r="N360" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="B361" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C361">
         <v>7347</v>
@@ -19551,15 +19551,15 @@
         <v>153519</v>
       </c>
       <c r="N361" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B362" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="C362">
         <v>25627</v>
@@ -19595,15 +19595,15 @@
         <v>53672</v>
       </c>
       <c r="N362" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B363" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C363">
         <v>40131</v>
@@ -19639,15 +19639,15 @@
         <v>221985</v>
       </c>
       <c r="N363" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B364" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="C364">
         <v>162</v>
@@ -19683,7 +19683,7 @@
         <v>73387</v>
       </c>
       <c r="N364" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
